--- a/project-admin/src/main/resources/poi/职工人员信息表.xlsx
+++ b/project-admin/src/main/resources/poi/职工人员信息表.xlsx
@@ -22,7 +22,7 @@
     <author>ZXL</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0">
+    <comment ref="E2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0">
+    <comment ref="G2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -64,6 +64,30 @@
           </rPr>
           <t xml:space="preserve">
 【籍贯】：填写本人的祖居地（指祖父的长期居住地）。按现行政区划填写，应填写省、市或县的名称，如“辽宁大连”“河北盐山”。直辖市直接填写城市名，如“上海”“重庆”等。
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>ZXL:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+【入党时间】：要如实填写，一般填写到月份，一律用公历和阿拉伯数字，年份用4位数字表示，月份用2位数字表示，如“1972/04”。
+    是民主党派成员又是中共党员的，先填写加入中共时间，分号隔开后再填写民主党派名称，如“2001/08；民建”。
 </t>
         </r>
       </text>
@@ -86,13 +110,12 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-【入党时间】：要如实填写，一般填写到月份，一律用公历和阿拉伯数字，年份用4位数字表示，月份用2位数字表示，如“1972/04”。
-    是民主党派成员又是中共党员的，先填写加入中共时间，分号隔开后再填写民主党派名称，如“2001/08；民建”。
+年份用4位数字表示，月份用2位数字表示，如“1972/04”。
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0">
+    <comment ref="M2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -110,7 +133,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-年份用4位数字表示，月份用2位数字表示，如“1972/04”。
+【专业技术职务】：应填写本人现担任的最高专业技术职务或现具有的最高专业技术职务任职资格。
 </t>
         </r>
       </text>
@@ -133,35 +156,12 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-【专业技术职务】：应填写本人现担任的最高专业技术职务或现具有的最高专业技术职务任职资格。
+填写干部所熟悉的工作业务及专长。
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>ZXL:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-填写干部所熟悉的工作业务及专长。
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S2" authorId="0">
+    <comment ref="R2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -184,7 +184,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V2" authorId="0">
+    <comment ref="U2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -280,15 +280,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t>员工基本信息</t>
   </si>
   <si>
     <t>公司名称(全称)</t>
-  </si>
-  <si>
-    <t>序号</t>
   </si>
   <si>
     <t>姓名</t>
@@ -429,10 +426,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -462,7 +459,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,6 +467,36 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -491,9 +518,40 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -504,17 +562,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -528,47 +586,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -582,29 +602,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -631,37 +628,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,145 +796,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,11 +846,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -873,32 +876,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -908,6 +892,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -927,13 +920,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -945,10 +942,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -957,133 +954,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1487,48 +1484,47 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+      <selection activeCell="B2" sqref="B$1:B$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="35" customHeight="1" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="23.625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="6.625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="13.625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="23.625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="6.625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="15.375" style="9" customWidth="1"/>
-    <col min="7" max="9" width="9.625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="13.625" style="8" customWidth="1"/>
-    <col min="11" max="12" width="16.625" style="9" customWidth="1"/>
-    <col min="13" max="13" width="13.625" style="8" customWidth="1"/>
-    <col min="14" max="16" width="23.625" style="8" customWidth="1"/>
-    <col min="17" max="18" width="9.625" style="8" customWidth="1"/>
-    <col min="19" max="19" width="13.625" style="8" customWidth="1"/>
-    <col min="20" max="21" width="23.625" style="8" customWidth="1"/>
-    <col min="22" max="22" width="16.625" style="9" customWidth="1"/>
-    <col min="23" max="24" width="13.625" style="8" customWidth="1"/>
-    <col min="25" max="16384" width="9" style="8"/>
+    <col min="2" max="2" width="13.625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="23.625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="6.625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="15.375" style="9" customWidth="1"/>
+    <col min="6" max="8" width="9.625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="13.625" style="8" customWidth="1"/>
+    <col min="10" max="11" width="16.625" style="9" customWidth="1"/>
+    <col min="12" max="12" width="13.625" style="8" customWidth="1"/>
+    <col min="13" max="15" width="23.625" style="8" customWidth="1"/>
+    <col min="16" max="17" width="9.625" style="8" customWidth="1"/>
+    <col min="18" max="18" width="13.625" style="8" customWidth="1"/>
+    <col min="19" max="20" width="23.625" style="8" customWidth="1"/>
+    <col min="21" max="21" width="16.625" style="9" customWidth="1"/>
+    <col min="22" max="23" width="13.625" style="8" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:24">
+    <row r="1" customHeight="1" spans="1:23">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="12"/>
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+      <c r="L1" s="12"/>
       <c r="M1" s="12"/>
       <c r="N1" s="12"/>
       <c r="O1" s="12"/>
@@ -1537,12 +1533,11 @@
       <c r="R1" s="12"/>
       <c r="S1" s="12"/>
       <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="12"/>
       <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
     </row>
-    <row r="2" customHeight="1" spans="1:24">
+    <row r="2" customHeight="1" spans="1:23">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -1555,28 +1550,28 @@
       <c r="D2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="12" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="12" t="s">
         <v>12</v>
       </c>
       <c r="M2" s="12" t="s">
@@ -1585,59 +1580,56 @@
       <c r="N2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="11" t="s">
         <v>17</v>
       </c>
       <c r="R2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="S2" s="12" t="s">
         <v>19</v>
       </c>
       <c r="T2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="U2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="13" t="s">
+      <c r="V2" s="12" t="s">
         <v>22</v>
       </c>
       <c r="W2" s="12" t="s">
         <v>23</v>
-      </c>
-      <c r="X2" s="12" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:X1"/>
+    <mergeCell ref="A1:W1"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R$1:R$1048576">
-      <formula1>"工人,经营管理,临时工,生产管理,专业管理,综合管理"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P$1:P$1048576">
+      <formula1>"基层,中层,高层"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
       <formula1>"男,女"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G$1:G$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F$1:F$1048576">
       <formula1>"汉族,蒙古族,回族,藏族,维吾尔族,苗族,彝族,壮族,布依族,朝鲜族,满族,侗族,瑶族,白族,土家族,哈尼族,哈萨克族,傣族,黎族,傈僳族,佤族,畲族,高山族,拉祜族,水族,东乡族,纳西族,景颇族,柯尔克孜族,土族,达斡尔族,仫佬族,羌族,布朗族,撒拉族,毛南族,仡佬族,锡伯族,阿昌族,普米族,塔吉克族,怒族,乌孜别克族,俄罗斯族,鄂温克族,德昂族,保安族,裕固族,京族,塔塔尔族,独龙族,鄂伦春族,赫哲族,门巴族,珞巴族,基诺族"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I$1:I$1048576">
+      <formula1>"中共党员,中共预备党员,共青团员,民革党员,民盟盟员,民建会员,民进会员,农工党党员,致公党党员,九三学社社员,台盟盟员,无党派人士,群众"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L$1:L$1048576">
       <formula1>"健康或良好,一般或较弱,有慢性病,心血管病,脑血管病,慢性呼吸系统病,慢性消化系统病,慢性肾炎,结核病,糖尿病,神经或精神疾病,癌症,其他慢性病,残疾,视力残疾,听力残疾,语言残疾,肢体残疾,智力残疾,精神残疾,多重残疾,其他残疾"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J$1:J$1048576">
-      <formula1>"中共党员,中共预备党员,共青团员,民革党员,民盟盟员,民建会员,民进会员,农工党党员,致公党党员,九三学社社员,台盟盟员,无党派人士,群众"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q$1:Q$1048576">
-      <formula1>"基层,中层,高层"</formula1>
+      <formula1>"工人,经营管理,临时工,生产管理,专业管理,综合管理"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1672,13 +1664,13 @@
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
@@ -1686,34 +1678,34 @@
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:10">
       <c r="A2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1722,10 +1714,10 @@
     <mergeCell ref="G1:J1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 E1:F1 G1 I1:J1"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576 G2:G1048576">
       <formula1>"博士研究生,硕士研究生,本科,专科,中专,职高,技校,高中,初中,小学,其他"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 E1:F1 G1 I1:J1"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
       <formula1>"工学博士,理学博士,农学博士,管理学博士,经济学博士,医学博士,教育学博士,军事学博士,哲学博士,历史学博士,文学博士,法学博士,工学硕士,理学硕士,农学硕士,管理学硕士,经济学硕士,医学硕士,教育学硕士,军事学硕士,哲学硕士,历史学硕士,文学硕士,法学硕士,工学学士,理学学士,农学学士,管理学学士,经济学学士,医学学士,教育学学士,军事学学士,哲学学士,历史学学士,文学学士,法学学士,境外学位,名誉博士,无学位"</formula1>
     </dataValidation>
@@ -1745,7 +1737,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D$1:D$1048576"/>
+      <selection activeCell="D2" sqref="A$1:F$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="35" customHeight="1" outlineLevelRow="1" outlineLevelCol="5"/>
@@ -1760,7 +1752,7 @@
   <sheetData>
     <row r="1" s="8" customFormat="1" customHeight="1" spans="1:6">
       <c r="A1" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -1770,22 +1762,22 @@
     </row>
     <row r="2" s="8" customFormat="1" customHeight="1" spans="1:6">
       <c r="A2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>28</v>
-      </c>
       <c r="C2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>40</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1803,7 +1795,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E$1:E$1048576"/>
+      <selection activeCell="E2" sqref="A$1:G$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="35" customHeight="1" outlineLevelRow="2" outlineLevelCol="6"/>
@@ -1819,7 +1811,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1830,30 +1822,30 @@
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="C2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="6:6">
       <c r="F3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
